--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Fzd1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H2">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25102137993188</v>
+        <v>1.269979666666667</v>
       </c>
       <c r="N2">
-        <v>1.25102137993188</v>
+        <v>3.809939</v>
       </c>
       <c r="O2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="P2">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="Q2">
-        <v>6.39022377150569</v>
+        <v>0.4755866421654444</v>
       </c>
       <c r="R2">
-        <v>6.39022377150569</v>
+        <v>4.280279779489</v>
       </c>
       <c r="S2">
-        <v>0.04672403203091477</v>
+        <v>0.003109331452424571</v>
       </c>
       <c r="T2">
-        <v>0.04672403203091477</v>
+        <v>0.003109331452424572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H3">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.4337475366283</v>
+        <v>20.604156</v>
       </c>
       <c r="N3">
-        <v>20.4337475366283</v>
+        <v>61.812468</v>
       </c>
       <c r="O3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627787</v>
       </c>
       <c r="P3">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627789</v>
       </c>
       <c r="Q3">
-        <v>104.3756896118099</v>
+        <v>7.715919887451999</v>
       </c>
       <c r="R3">
-        <v>104.3756896118099</v>
+        <v>69.443278987068</v>
       </c>
       <c r="S3">
-        <v>0.763174066989194</v>
+        <v>0.05044580789991317</v>
       </c>
       <c r="T3">
-        <v>0.763174066989194</v>
+        <v>0.05044580789991319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H4">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.537520032554469</v>
+        <v>0.6519523333333334</v>
       </c>
       <c r="N4">
-        <v>0.537520032554469</v>
+        <v>1.955857</v>
       </c>
       <c r="O4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="P4">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="Q4">
-        <v>2.745655146099193</v>
+        <v>0.2441455002785556</v>
       </c>
       <c r="R4">
-        <v>2.745655146099193</v>
+        <v>2.197309502507</v>
       </c>
       <c r="S4">
-        <v>0.02007567865842622</v>
+        <v>0.001596195552355238</v>
       </c>
       <c r="T4">
-        <v>0.02007567865842622</v>
+        <v>0.001596195552355239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H5">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I5">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J5">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.574735221451795</v>
+        <v>0.7481240000000001</v>
       </c>
       <c r="N5">
-        <v>0.574735221451795</v>
+        <v>2.244372</v>
       </c>
       <c r="O5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428538</v>
       </c>
       <c r="P5">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428539</v>
       </c>
       <c r="Q5">
-        <v>2.935750526216292</v>
+        <v>0.2801602186413334</v>
       </c>
       <c r="R5">
-        <v>2.935750526216292</v>
+        <v>2.521441967772</v>
       </c>
       <c r="S5">
-        <v>0.02146561787606763</v>
+        <v>0.001831655690692434</v>
       </c>
       <c r="T5">
-        <v>0.02146561787606763</v>
+        <v>0.001831655690692434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H6">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I6">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J6">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.5139452088503</v>
+        <v>1.659922</v>
       </c>
       <c r="N6">
-        <v>1.5139452088503</v>
+        <v>4.979766</v>
       </c>
       <c r="O6">
-        <v>0.06227416049201662</v>
+        <v>0.06657227397590788</v>
       </c>
       <c r="P6">
-        <v>0.06227416049201662</v>
+        <v>0.0665722739759079</v>
       </c>
       <c r="Q6">
-        <v>7.733240068910032</v>
+        <v>0.6216136769406666</v>
       </c>
       <c r="R6">
-        <v>7.733240068910032</v>
+        <v>5.594523092466</v>
       </c>
       <c r="S6">
-        <v>0.05654389730351621</v>
+        <v>0.004064039620979364</v>
       </c>
       <c r="T6">
-        <v>0.05654389730351621</v>
+        <v>0.004064039620979364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J7">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.25102137993188</v>
+        <v>1.269979666666667</v>
       </c>
       <c r="N7">
-        <v>1.25102137993188</v>
+        <v>3.809939</v>
       </c>
       <c r="O7">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="P7">
-        <v>0.05145913190080674</v>
+        <v>0.05093337778110388</v>
       </c>
       <c r="Q7">
-        <v>0.6475971022581452</v>
+        <v>6.521717692375667</v>
       </c>
       <c r="R7">
-        <v>0.6475971022581452</v>
+        <v>58.69545923138099</v>
       </c>
       <c r="S7">
-        <v>0.004735099869891969</v>
+        <v>0.04263824957826127</v>
       </c>
       <c r="T7">
-        <v>0.004735099869891969</v>
+        <v>0.04263824957826128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H8">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I8">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J8">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.4337475366283</v>
+        <v>20.604156</v>
       </c>
       <c r="N8">
-        <v>20.4337475366283</v>
+        <v>61.812468</v>
       </c>
       <c r="O8">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627787</v>
       </c>
       <c r="P8">
-        <v>0.8405155392087675</v>
+        <v>0.8263433572627789</v>
       </c>
       <c r="Q8">
-        <v>10.57762553483742</v>
+        <v>105.808378077708</v>
       </c>
       <c r="R8">
-        <v>10.57762553483742</v>
+        <v>952.2754026993719</v>
       </c>
       <c r="S8">
-        <v>0.07734147221957351</v>
+        <v>0.6917631588412013</v>
       </c>
       <c r="T8">
-        <v>0.07734147221957351</v>
+        <v>0.6917631588412014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H9">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I9">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J9">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.537520032554469</v>
+        <v>0.6519523333333334</v>
       </c>
       <c r="N9">
-        <v>0.537520032554469</v>
+        <v>1.955857</v>
       </c>
       <c r="O9">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="P9">
-        <v>0.02211018508416899</v>
+        <v>0.02614698121592406</v>
       </c>
       <c r="Q9">
-        <v>0.2782497734026995</v>
+        <v>3.347966253700333</v>
       </c>
       <c r="R9">
-        <v>0.2782497734026995</v>
+        <v>30.131696283303</v>
       </c>
       <c r="S9">
-        <v>0.002034506425742767</v>
+        <v>0.02188862312635172</v>
       </c>
       <c r="T9">
-        <v>0.002034506425742767</v>
+        <v>0.02188862312635172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H10">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I10">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J10">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.574735221451795</v>
+        <v>0.7481240000000001</v>
       </c>
       <c r="N10">
-        <v>0.574735221451795</v>
+        <v>2.244372</v>
       </c>
       <c r="O10">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428538</v>
       </c>
       <c r="P10">
-        <v>0.02364098331424017</v>
+        <v>0.03000400976428539</v>
       </c>
       <c r="Q10">
-        <v>0.2975143909995707</v>
+        <v>3.841835940332</v>
       </c>
       <c r="R10">
-        <v>0.2975143909995707</v>
+        <v>34.576523462988</v>
       </c>
       <c r="S10">
-        <v>0.002175365438172538</v>
+        <v>0.02511748704702658</v>
       </c>
       <c r="T10">
-        <v>0.002175365438172538</v>
+        <v>0.02511748704702658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.135293</v>
+      </c>
+      <c r="H11">
+        <v>15.405879</v>
+      </c>
+      <c r="I11">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="J11">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.659922</v>
+      </c>
+      <c r="N11">
+        <v>4.979766</v>
+      </c>
+      <c r="O11">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P11">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q11">
+        <v>8.524185827145999</v>
+      </c>
+      <c r="R11">
+        <v>76.71767244431399</v>
+      </c>
+      <c r="S11">
+        <v>0.05573015881601773</v>
+      </c>
+      <c r="T11">
+        <v>0.05573015881601774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H12">
+        <v>0.195449</v>
+      </c>
+      <c r="I12">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J12">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.269979666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.809939</v>
+      </c>
+      <c r="O12">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="P12">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="Q12">
+        <v>0.0827387519567778</v>
+      </c>
+      <c r="R12">
+        <v>0.7446487676110001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005409365633614017</v>
+      </c>
+      <c r="T12">
+        <v>0.0005409365633614018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.195449</v>
+      </c>
+      <c r="I13">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J13">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.604156</v>
+      </c>
+      <c r="N13">
+        <v>61.812468</v>
+      </c>
+      <c r="O13">
+        <v>0.8263433572627787</v>
+      </c>
+      <c r="P13">
+        <v>0.8263433572627789</v>
+      </c>
+      <c r="Q13">
+        <v>1.342353895348</v>
+      </c>
+      <c r="R13">
+        <v>12.081185058132</v>
+      </c>
+      <c r="S13">
+        <v>0.008776157311916702</v>
+      </c>
+      <c r="T13">
+        <v>0.008776157311916704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.195449</v>
+      </c>
+      <c r="I14">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J14">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6519523333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.955857</v>
+      </c>
+      <c r="O14">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="P14">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="Q14">
+        <v>0.04247447719922223</v>
+      </c>
+      <c r="R14">
+        <v>0.382270294793</v>
+      </c>
+      <c r="S14">
+        <v>0.000277693307952264</v>
+      </c>
+      <c r="T14">
+        <v>0.0002776933079522641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.195449</v>
+      </c>
+      <c r="I15">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J15">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7481240000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.244372</v>
+      </c>
+      <c r="O15">
+        <v>0.03000400976428538</v>
+      </c>
+      <c r="P15">
+        <v>0.03000400976428539</v>
+      </c>
+      <c r="Q15">
+        <v>0.04874002922533335</v>
+      </c>
+      <c r="R15">
+        <v>0.4386602630280001</v>
+      </c>
+      <c r="S15">
+        <v>0.0003186567754981263</v>
+      </c>
+      <c r="T15">
+        <v>0.0003186567754981264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.195449</v>
+      </c>
+      <c r="I16">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J16">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.659922</v>
+      </c>
+      <c r="N16">
+        <v>4.979766</v>
+      </c>
+      <c r="O16">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P16">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q16">
+        <v>0.1081433649926667</v>
+      </c>
+      <c r="R16">
+        <v>0.973290284934</v>
+      </c>
+      <c r="S16">
+        <v>0.0007070290380984981</v>
+      </c>
+      <c r="T16">
+        <v>0.0007070290380984982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.678262</v>
+      </c>
+      <c r="I17">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J17">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.269979666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.809939</v>
+      </c>
+      <c r="O17">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="P17">
+        <v>0.05093337778110388</v>
+      </c>
+      <c r="Q17">
+        <v>0.7104528717797778</v>
+      </c>
+      <c r="R17">
+        <v>6.394075846018</v>
+      </c>
+      <c r="S17">
+        <v>0.004644860187056636</v>
+      </c>
+      <c r="T17">
+        <v>0.004644860187056638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="H11">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="I11">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="J11">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.5139452088503</v>
-      </c>
-      <c r="N11">
-        <v>1.5139452088503</v>
-      </c>
-      <c r="O11">
-        <v>0.06227416049201662</v>
-      </c>
-      <c r="P11">
-        <v>0.06227416049201662</v>
-      </c>
-      <c r="Q11">
-        <v>0.7837008591191642</v>
-      </c>
-      <c r="R11">
-        <v>0.7837008591191642</v>
-      </c>
-      <c r="S11">
-        <v>0.0057302631885004</v>
-      </c>
-      <c r="T11">
-        <v>0.0057302631885004</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.678262</v>
+      </c>
+      <c r="I18">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J18">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.604156</v>
+      </c>
+      <c r="N18">
+        <v>61.812468</v>
+      </c>
+      <c r="O18">
+        <v>0.8263433572627787</v>
+      </c>
+      <c r="P18">
+        <v>0.8263433572627789</v>
+      </c>
+      <c r="Q18">
+        <v>11.526390685624</v>
+      </c>
+      <c r="R18">
+        <v>103.737516170616</v>
+      </c>
+      <c r="S18">
+        <v>0.07535823320974754</v>
+      </c>
+      <c r="T18">
+        <v>0.07535823320974756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.678262</v>
+      </c>
+      <c r="I19">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J19">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6519523333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.955857</v>
+      </c>
+      <c r="O19">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="P19">
+        <v>0.02614698121592406</v>
+      </c>
+      <c r="Q19">
+        <v>0.3647156089482222</v>
+      </c>
+      <c r="R19">
+        <v>3.282440480534</v>
+      </c>
+      <c r="S19">
+        <v>0.002384469229264834</v>
+      </c>
+      <c r="T19">
+        <v>0.002384469229264834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.678262</v>
+      </c>
+      <c r="I20">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J20">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7481240000000001</v>
+      </c>
+      <c r="N20">
+        <v>2.244372</v>
+      </c>
+      <c r="O20">
+        <v>0.03000400976428538</v>
+      </c>
+      <c r="P20">
+        <v>0.03000400976428539</v>
+      </c>
+      <c r="Q20">
+        <v>0.4185160268293334</v>
+      </c>
+      <c r="R20">
+        <v>3.766644241464</v>
+      </c>
+      <c r="S20">
+        <v>0.00273621025106824</v>
+      </c>
+      <c r="T20">
+        <v>0.002736210251068241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.678262</v>
+      </c>
+      <c r="I21">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J21">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.659922</v>
+      </c>
+      <c r="N21">
+        <v>4.979766</v>
+      </c>
+      <c r="O21">
+        <v>0.06657227397590788</v>
+      </c>
+      <c r="P21">
+        <v>0.0665722739759079</v>
+      </c>
+      <c r="Q21">
+        <v>0.9285946718546666</v>
+      </c>
+      <c r="R21">
+        <v>8.357352046691998</v>
+      </c>
+      <c r="S21">
+        <v>0.00607104650081229</v>
+      </c>
+      <c r="T21">
+        <v>0.006071046500812293</v>
       </c>
     </row>
   </sheetData>
